--- a/src/main/resources/static/category.xlsx
+++ b/src/main/resources/static/category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>长岭镇</t>
+  </si>
+  <si>
+    <t>运营设备档案</t>
+  </si>
+  <si>
+    <t>设备档案</t>
+  </si>
+  <si>
+    <t>安全设备档案</t>
+  </si>
+  <si>
+    <t>应急设备档案</t>
+  </si>
+  <si>
+    <t>特种设备档案</t>
+  </si>
+  <si>
+    <t>其它设备档案</t>
   </si>
 </sst>
 </file>
@@ -69,6 +87,19 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,30 +112,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,42 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -177,44 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -231,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +439,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,30 +462,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,8 +484,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,7 +505,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,13 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1125,8 +1142,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/category.xlsx
+++ b/src/main/resources/static/category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,36 @@
   </si>
   <si>
     <t>其它设备档案</t>
+  </si>
+  <si>
+    <t>一般故障隐患</t>
+  </si>
+  <si>
+    <t>隐患排查：隐患严重程度</t>
+  </si>
+  <si>
+    <t>隐患排查严重程度</t>
+  </si>
+  <si>
+    <t>重大事故隐患</t>
+  </si>
+  <si>
+    <t>人的不安全行为</t>
+  </si>
+  <si>
+    <t>隐患排查：隐患原因类别</t>
+  </si>
+  <si>
+    <t>隐患排查原因类别</t>
+  </si>
+  <si>
+    <t>物的不安全状态</t>
+  </si>
+  <si>
+    <t>管理上的缺失</t>
+  </si>
+  <si>
+    <t>环境不良</t>
   </si>
 </sst>
 </file>
@@ -69,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +119,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -97,6 +139,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -104,31 +237,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,32 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,60 +274,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -248,121 +290,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,61 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +510,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,19 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,32 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,142 +599,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
@@ -1048,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1059,6 +1107,7 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -1195,6 +1244,72 @@
       </c>
       <c r="D11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/category.xlsx
+++ b/src/main/resources/static/category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -92,6 +92,36 @@
   </si>
   <si>
     <t>环境不良</t>
+  </si>
+  <si>
+    <t>相关方管理台账</t>
+  </si>
+  <si>
+    <t>作业台账类别</t>
+  </si>
+  <si>
+    <t>相关方检查</t>
+  </si>
+  <si>
+    <t>相关方安全协议模板</t>
+  </si>
+  <si>
+    <t>出租场地安全检查</t>
+  </si>
+  <si>
+    <t>值班表模板</t>
+  </si>
+  <si>
+    <t>动火作业许可证</t>
+  </si>
+  <si>
+    <t>临时用电作业许可证</t>
+  </si>
+  <si>
+    <t>高处作业许可证</t>
+  </si>
+  <si>
+    <t>有限空间作业许可证</t>
   </si>
 </sst>
 </file>
@@ -99,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -139,100 +169,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,9 +205,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,21 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -290,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +511,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,43 +598,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1312,6 +1342,105 @@
         <v>22</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/static/category.xlsx
+++ b/src/main/resources/static/category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -162,28 +162,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +283,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -204,106 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,8 +517,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +573,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,66 +611,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/src/main/resources/static/category.xlsx
+++ b/src/main/resources/static/category.xlsx
@@ -28,22 +28,22 @@
     <t>type</t>
   </si>
   <si>
-    <t>吉林省</t>
+    <t>浙江省</t>
   </si>
   <si>
     <t>区域</t>
   </si>
   <si>
-    <t>长春市</t>
-  </si>
-  <si>
-    <t>松原市</t>
-  </si>
-  <si>
-    <t>太平川镇</t>
-  </si>
-  <si>
-    <t>长岭镇</t>
+    <t>嘉兴市</t>
+  </si>
+  <si>
+    <t>绍兴市</t>
+  </si>
+  <si>
+    <t>南湖区</t>
+  </si>
+  <si>
+    <t>秀洲区</t>
   </si>
   <si>
     <t>运营设备档案</t>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -162,15 +162,114 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,125 +284,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -320,55 +320,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,127 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,43 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +534,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,23 +588,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -617,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1198,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1212,10 +1212,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
